--- a/pred_ohlcv/54_23/2019-10-17 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-17 FAB ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -553,7 +553,7 @@
         <v>5.75</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -576,7 +576,7 @@
         <v>5.72</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -622,7 +622,7 @@
         <v>5.69</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>5.67</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -691,7 +691,7 @@
         <v>5.9</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -967,7 +967,7 @@
         <v>5.96</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -2922,7 +2922,7 @@
         <v>6.12</v>
       </c>
       <c r="F111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -2945,7 +2945,7 @@
         <v>6.12</v>
       </c>
       <c r="F112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -3014,7 +3014,7 @@
         <v>5.92</v>
       </c>
       <c r="F115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -3060,7 +3060,7 @@
         <v>6.02</v>
       </c>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -3106,7 +3106,7 @@
         <v>6.15</v>
       </c>
       <c r="F119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -3129,7 +3129,7 @@
         <v>6.15</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -3152,7 +3152,7 @@
         <v>6.15</v>
       </c>
       <c r="F121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -3175,7 +3175,7 @@
         <v>6.13</v>
       </c>
       <c r="F122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -3198,7 +3198,7 @@
         <v>6.07</v>
       </c>
       <c r="F123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -3221,7 +3221,7 @@
         <v>6.06</v>
       </c>
       <c r="F124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -3267,7 +3267,7 @@
         <v>6.12</v>
       </c>
       <c r="F126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -3313,7 +3313,7 @@
         <v>6.13</v>
       </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -3336,7 +3336,7 @@
         <v>6.12</v>
       </c>
       <c r="F129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -3359,7 +3359,7 @@
         <v>6.08</v>
       </c>
       <c r="F130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -3382,7 +3382,7 @@
         <v>6.13</v>
       </c>
       <c r="F131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -3405,7 +3405,7 @@
         <v>6.11</v>
       </c>
       <c r="F132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -3428,7 +3428,7 @@
         <v>6.11</v>
       </c>
       <c r="F133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -3451,7 +3451,7 @@
         <v>6.13</v>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -3474,7 +3474,7 @@
         <v>6.08</v>
       </c>
       <c r="F135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -3497,7 +3497,7 @@
         <v>6.04</v>
       </c>
       <c r="F136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -5340,10 +5340,10 @@
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>